--- a/dns/dns_template.xlsx
+++ b/dns/dns_template.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/USZCZRA/Python/lab/dns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E6B87E-3926-264C-9571-1B4CCF34F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09528BB8-5A8C-CE4E-9989-6D788261FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41660" yWindow="3660" windowWidth="27840" windowHeight="16740"/>
+    <workbookView xWindow="4520" yWindow="4260" windowWidth="27840" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dns_template" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,6 +325,14 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -691,7 +699,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -700,6 +708,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1074,18 +1083,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:E431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1116,13 +1125,1147 @@
         <v>7</v>
       </c>
     </row>
+    <row r="432" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E432" s="8"/>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E433" s="8"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E434" s="8"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E435" s="8"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E436" s="8"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E437" s="8"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E438" s="8"/>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E439" s="8"/>
+    </row>
+    <row r="440" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E440" s="8"/>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E441" s="8"/>
+    </row>
+    <row r="442" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E442" s="8"/>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E443" s="8"/>
+    </row>
+    <row r="444" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E444" s="8"/>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E445" s="8"/>
+    </row>
+    <row r="446" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E446" s="8"/>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E447" s="8"/>
+    </row>
+    <row r="448" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E448" s="8"/>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E449" s="8"/>
+    </row>
+    <row r="450" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E450" s="8"/>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E451" s="8"/>
+    </row>
+    <row r="452" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E452" s="8"/>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E453" s="8"/>
+    </row>
+    <row r="454" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E454" s="8"/>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E455" s="8"/>
+    </row>
+    <row r="456" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E456" s="8"/>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E457" s="8"/>
+    </row>
+    <row r="458" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E458" s="8"/>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E459" s="8"/>
+    </row>
+    <row r="460" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E460" s="8"/>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E461" s="8"/>
+    </row>
+    <row r="462" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E462" s="8"/>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E463" s="8"/>
+    </row>
+    <row r="464" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E464" s="8"/>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E465" s="8"/>
+    </row>
+    <row r="466" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E466" s="8"/>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E467" s="8"/>
+    </row>
+    <row r="468" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E468" s="8"/>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E469" s="8"/>
+    </row>
+    <row r="470" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E470" s="8"/>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E471" s="8"/>
+    </row>
+    <row r="472" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E472" s="8"/>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E473" s="8"/>
+    </row>
+    <row r="474" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E474" s="8"/>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E475" s="8"/>
+    </row>
+    <row r="476" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E476" s="8"/>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E477" s="8"/>
+    </row>
+    <row r="478" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E478" s="8"/>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E479" s="8"/>
+    </row>
+    <row r="480" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E480" s="8"/>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E481" s="8"/>
+    </row>
+    <row r="482" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E482" s="8"/>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E483" s="8"/>
+    </row>
+    <row r="484" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E484" s="8"/>
+    </row>
+    <row r="485" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E485" s="8"/>
+    </row>
+    <row r="486" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E486" s="8"/>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E487" s="8"/>
+    </row>
+    <row r="488" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E488" s="8"/>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E489" s="8"/>
+    </row>
+    <row r="490" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E490" s="8"/>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E491" s="8"/>
+    </row>
+    <row r="492" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E492" s="8"/>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E493" s="8"/>
+    </row>
+    <row r="494" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E494" s="8"/>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E495" s="8"/>
+    </row>
+    <row r="496" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E496" s="8"/>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E497" s="8"/>
+    </row>
+    <row r="498" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E498" s="8"/>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E499" s="8"/>
+    </row>
+    <row r="500" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E500" s="8"/>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E501" s="8"/>
+    </row>
+    <row r="502" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E502" s="8"/>
+    </row>
+    <row r="503" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E503" s="8"/>
+    </row>
+    <row r="504" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E504" s="8"/>
+    </row>
+    <row r="505" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E505" s="8"/>
+    </row>
+    <row r="506" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E506" s="8"/>
+    </row>
+    <row r="507" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E507" s="8"/>
+    </row>
+    <row r="508" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E508" s="8"/>
+    </row>
+    <row r="509" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E509" s="8"/>
+    </row>
+    <row r="510" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E510" s="8"/>
+    </row>
+    <row r="511" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E511" s="8"/>
+    </row>
+    <row r="512" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E512" s="8"/>
+    </row>
+    <row r="513" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E513" s="8"/>
+    </row>
+    <row r="514" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E514" s="8"/>
+    </row>
+    <row r="515" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E515" s="8"/>
+    </row>
+    <row r="516" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E516" s="8"/>
+    </row>
+    <row r="517" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E517" s="8"/>
+    </row>
+    <row r="518" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E518" s="8"/>
+    </row>
+    <row r="519" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E519" s="8"/>
+    </row>
+    <row r="520" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E520" s="8"/>
+    </row>
+    <row r="521" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E521" s="8"/>
+    </row>
+    <row r="522" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E522" s="8"/>
+    </row>
+    <row r="523" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E523" s="8"/>
+    </row>
+    <row r="524" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E524" s="8"/>
+    </row>
+    <row r="525" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E525" s="8"/>
+    </row>
+    <row r="526" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E526" s="8"/>
+    </row>
+    <row r="527" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E527" s="8"/>
+    </row>
+    <row r="528" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E528" s="8"/>
+    </row>
+    <row r="529" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E529" s="8"/>
+    </row>
+    <row r="530" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E530" s="8"/>
+    </row>
+    <row r="531" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E531" s="8"/>
+    </row>
+    <row r="532" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E532" s="8"/>
+    </row>
+    <row r="533" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E533" s="8"/>
+    </row>
+    <row r="534" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E534" s="8"/>
+    </row>
+    <row r="535" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E535" s="8"/>
+    </row>
+    <row r="536" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E536" s="8"/>
+    </row>
+    <row r="537" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E537" s="8"/>
+    </row>
+    <row r="538" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E538" s="8"/>
+    </row>
+    <row r="539" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E539" s="8"/>
+    </row>
+    <row r="540" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E540" s="8"/>
+    </row>
+    <row r="541" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E541" s="8"/>
+    </row>
+    <row r="542" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E542" s="8"/>
+    </row>
+    <row r="543" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E543" s="8"/>
+    </row>
+    <row r="544" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E544" s="8"/>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E545" s="8"/>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E546" s="8"/>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E547" s="8"/>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E548" s="8"/>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E549" s="8"/>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E550" s="8"/>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E551" s="8"/>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E552" s="8"/>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E553" s="8"/>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E554" s="8"/>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E555" s="8"/>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E556" s="8"/>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E557" s="8"/>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E558" s="8"/>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E559" s="8"/>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E560" s="8"/>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E561" s="8"/>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E562" s="8"/>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E563" s="8"/>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E564" s="8"/>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E565" s="8"/>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E566" s="8"/>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E567" s="8"/>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E568" s="8"/>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E569" s="8"/>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E570" s="8"/>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E571" s="8"/>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E572" s="8"/>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E573" s="8"/>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E574" s="8"/>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E575" s="8"/>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E576" s="8"/>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E577" s="8"/>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E578" s="8"/>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E579" s="8"/>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E580" s="8"/>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E581" s="8"/>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E582" s="8"/>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E583" s="8"/>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E584" s="8"/>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E585" s="8"/>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E586" s="8"/>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E587" s="8"/>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E588" s="8"/>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E589" s="8"/>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E590" s="8"/>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E591" s="8"/>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E592" s="8"/>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E593" s="8"/>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E594" s="8"/>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E595" s="8"/>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E596" s="8"/>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E597" s="8"/>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E598" s="8"/>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E599" s="8"/>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E600" s="8"/>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E601" s="8"/>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E602" s="8"/>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E603" s="8"/>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E604" s="8"/>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E605" s="8"/>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E606" s="8"/>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E607" s="8"/>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E608" s="8"/>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E609" s="8"/>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E610" s="8"/>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E611" s="8"/>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E612" s="8"/>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E613" s="8"/>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E614" s="8"/>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E615" s="8"/>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E616" s="8"/>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E617" s="8"/>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E618" s="8"/>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E619" s="8"/>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E620" s="8"/>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E621" s="8"/>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E622" s="8"/>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E623" s="8"/>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E624" s="8"/>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E625" s="8"/>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E626" s="8"/>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E627" s="8"/>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E628" s="8"/>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E629" s="8"/>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E630" s="8"/>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E631" s="8"/>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E632" s="8"/>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E633" s="8"/>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E634" s="8"/>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E635" s="8"/>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E636" s="8"/>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E637" s="8"/>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E638" s="8"/>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E639" s="8"/>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E640" s="8"/>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E641" s="8"/>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E642" s="8"/>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E643" s="8"/>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E644" s="8"/>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E645" s="8"/>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E646" s="8"/>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E647" s="8"/>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E648" s="8"/>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E649" s="8"/>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E650" s="8"/>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E651" s="8"/>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E652" s="8"/>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E653" s="8"/>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E654" s="8"/>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E655" s="8"/>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E656" s="8"/>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E657" s="8"/>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E658" s="8"/>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E659" s="8"/>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E660" s="8"/>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E661" s="8"/>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E662" s="8"/>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E663" s="8"/>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E664" s="8"/>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E665" s="8"/>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E666" s="8"/>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E667" s="8"/>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E668" s="8"/>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E669" s="8"/>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E670" s="8"/>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E671" s="8"/>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E672" s="8"/>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E673" s="8"/>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E674" s="8"/>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E675" s="8"/>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E676" s="8"/>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E677" s="8"/>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E678" s="8"/>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E679" s="8"/>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E680" s="8"/>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E681" s="8"/>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E682" s="8"/>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E683" s="8"/>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E684" s="8"/>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E685" s="8"/>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E686" s="8"/>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E687" s="8"/>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E688" s="8"/>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E689" s="8"/>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E690" s="8"/>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E691" s="8"/>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E692" s="8"/>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E693" s="8"/>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E694" s="8"/>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E695" s="8"/>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E696" s="8"/>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E697" s="8"/>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E698" s="8"/>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E699" s="8"/>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E700" s="8"/>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E701" s="8"/>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E702" s="8"/>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E703" s="8"/>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E704" s="8"/>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E705" s="8"/>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E706" s="8"/>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E707" s="8"/>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E708" s="8"/>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E709" s="8"/>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E710" s="8"/>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E711" s="8"/>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E712" s="8"/>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E713" s="8"/>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E714" s="8"/>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E715" s="8"/>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E716" s="8"/>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E717" s="8"/>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E718" s="8"/>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E719" s="8"/>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E720" s="8"/>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E721" s="8"/>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E722" s="8"/>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E723" s="8"/>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E724" s="8"/>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E725" s="8"/>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E726" s="8"/>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E727" s="8"/>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E728" s="8"/>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E729" s="8"/>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E730" s="8"/>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E731" s="8"/>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E732" s="8"/>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E733" s="8"/>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E734" s="8"/>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E735" s="8"/>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E736" s="8"/>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E737" s="8"/>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E738" s="8"/>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E739" s="8"/>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E740" s="8"/>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E741" s="8"/>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E742" s="8"/>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E743" s="8"/>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E744" s="8"/>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E745" s="8"/>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E746" s="8"/>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E747" s="8"/>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E748" s="8"/>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E749" s="8"/>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E750" s="8"/>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E751" s="8"/>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E752" s="8"/>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E753" s="8"/>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E754" s="8"/>
+    </row>
+    <row r="755" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E755" s="8"/>
+    </row>
+    <row r="756" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E756" s="8"/>
+    </row>
+    <row r="757" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E757" s="8"/>
+    </row>
+    <row r="758" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E758" s="8"/>
+    </row>
+    <row r="759" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E759" s="8"/>
+    </row>
+    <row r="760" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E760" s="8"/>
+    </row>
+    <row r="761" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E761" s="8"/>
+    </row>
+    <row r="762" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E762" s="8"/>
+    </row>
+    <row r="763" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E763" s="8"/>
+    </row>
+    <row r="764" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E764" s="8"/>
+    </row>
+    <row r="765" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E765" s="8"/>
+    </row>
+    <row r="766" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E766" s="8"/>
+    </row>
+    <row r="767" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E767" s="8"/>
+    </row>
+    <row r="768" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E768" s="8"/>
+    </row>
+    <row r="769" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E769" s="8"/>
+    </row>
+    <row r="770" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E770" s="8"/>
+    </row>
+    <row r="771" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E771" s="8"/>
+    </row>
+    <row r="772" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E772" s="8"/>
+    </row>
+    <row r="773" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E773" s="8"/>
+    </row>
+    <row r="774" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E774" s="8"/>
+    </row>
+    <row r="775" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E775" s="8"/>
+    </row>
+    <row r="776" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E776" s="8"/>
+    </row>
+    <row r="777" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E777" s="8"/>
+    </row>
+    <row r="778" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E778" s="8"/>
+    </row>
+    <row r="779" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E779" s="8"/>
+    </row>
+    <row r="780" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E780" s="8"/>
+    </row>
+    <row r="781" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E781" s="8"/>
+    </row>
+    <row r="782" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E782" s="8"/>
+    </row>
+    <row r="783" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E783" s="8"/>
+    </row>
+    <row r="784" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E784" s="8"/>
+    </row>
+    <row r="785" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E785" s="8"/>
+    </row>
+    <row r="786" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E786" s="8"/>
+    </row>
+    <row r="787" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E787" s="8"/>
+    </row>
+    <row r="788" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E788" s="8"/>
+    </row>
+    <row r="789" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E789" s="8"/>
+    </row>
+    <row r="790" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E790" s="8"/>
+    </row>
+    <row r="791" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E791" s="8"/>
+    </row>
+    <row r="792" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E792" s="8"/>
+    </row>
+    <row r="793" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E793" s="8"/>
+    </row>
+    <row r="794" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E794" s="8"/>
+    </row>
+    <row r="795" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E795" s="8"/>
+    </row>
+    <row r="796" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E796" s="8"/>
+    </row>
+    <row r="797" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E797" s="8"/>
+    </row>
+    <row r="798" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E798" s="8"/>
+    </row>
+    <row r="799" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E799" s="8"/>
+    </row>
+    <row r="800" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E800" s="8"/>
+    </row>
+    <row r="801" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E801" s="8"/>
+    </row>
+    <row r="802" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E802" s="8"/>
+    </row>
+    <row r="803" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E803" s="8"/>
+    </row>
+    <row r="804" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E804" s="8"/>
+    </row>
+    <row r="805" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E805" s="8"/>
+    </row>
+    <row r="806" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E806" s="8"/>
+    </row>
+    <row r="807" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E807" s="8"/>
+    </row>
+    <row r="808" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E808" s="8"/>
+    </row>
+    <row r="809" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E809" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">

--- a/dns/dns_template.xlsx
+++ b/dns/dns_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/USZCZRA/Python/lab/dns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09528BB8-5A8C-CE4E-9989-6D788261FC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FAC53F-DD91-7744-B89D-A62E68101CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="4260" windowWidth="27840" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dns_template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="44">
   <si>
     <t>Type</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>global.redirect.pearson.com</t>
+  </si>
+  <si>
+    <t>New_Preference</t>
+  </si>
+  <si>
+    <t>New_Record_UPDATE</t>
+  </si>
+  <si>
+    <t>New Value_UPDATE</t>
   </si>
 </sst>
 </file>
@@ -334,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +545,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -699,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -709,6 +730,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -754,7 +777,28 @@
     <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1087,16 +1131,17 @@
   <dimension ref="A1:H809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E431"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.5" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1118,11 +1163,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.2">
@@ -2260,6 +2305,12 @@
       <c r="E809" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D195">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G188 H2:H3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2268,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2305,10 +2356,10 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2410,10 +2461,10 @@
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2515,10 +2566,10 @@
       <c r="F14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2620,10 +2671,10 @@
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4" t="s">
+      <c r="G20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2687,11 +2738,9 @@
       <c r="E23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>30</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>36</v>
@@ -2731,10 +2780,10 @@
       <c r="F26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2836,10 +2885,10 @@
       <c r="F32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2900,9 +2949,7 @@
       <c r="D35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
         <v>13</v>
       </c>
@@ -2954,10 +3001,10 @@
       <c r="F38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3014,9 +3061,7 @@
       <c r="D41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E41" s="7"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
         <v>33</v>
